--- a/application/controllers/file/laporan_rincian_ijin_lokasi.xlsx
+++ b/application/controllers/file/laporan_rincian_ijin_lokasi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\landargopuro\application\controllers\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Feroza\Documents\Project\landargopuro\application\controllers\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABB9BA8-DD7C-4A9F-B3BB-4ACFE8BEF9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B10301-0A21-4EC7-94FF-710C45BE5A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{F54AB4D7-7B2D-48B6-BA0E-3BB89B47F765}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>PT. GUNUNG BATU UTAMA</t>
   </si>
@@ -366,6 +366,43 @@
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -378,46 +415,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B920E5-62FF-4488-A89A-1C57F1578694}">
   <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -747,7 +747,7 @@
     <col min="5" max="5" width="15.453125" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.54296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="27" customWidth="1"/>
     <col min="9" max="9" width="10.7265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="16.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.1796875" style="1" customWidth="1"/>
@@ -796,7 +796,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="32"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -838,7 +838,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-      <c r="H2" s="32"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -880,7 +880,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="32"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -920,7 +920,7 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="33"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
@@ -960,7 +960,7 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="33"/>
+      <c r="H5" s="22"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1000,7 +1000,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="34"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1035,69 +1035,69 @@
     </row>
     <row r="7" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3"/>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="21" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
     </row>
     <row r="8" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="25" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="28" t="s">
+      <c r="F8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:41" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
       <c r="F9" s="16" t="s">
         <v>17</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="24" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="27"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="17"/>
       <c r="L9" s="18"/>
     </row>
@@ -1109,7 +1109,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
-      <c r="H10" s="36"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="19"/>
@@ -1126,7 +1126,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="34"/>
+      <c r="H11" s="23"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -1165,40 +1165,35 @@
       <c r="B12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="23"/>
     </row>
     <row r="13" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H13" s="34"/>
+      <c r="H13" s="23"/>
       <c r="I13" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H14" s="34"/>
+      <c r="H14" s="23"/>
     </row>
     <row r="15" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H15" s="34"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:41" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H16" s="34"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="H17" s="34"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="34"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="13" t="s">
         <v>7</v>
       </c>
@@ -1210,11 +1205,9 @@
       <c r="C19" s="15"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
-      <c r="F19" s="14" t="s">
-        <v>9</v>
-      </c>
+      <c r="F19" s="14"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="37"/>
+      <c r="H19" s="26"/>
       <c r="I19" s="15" t="s">
         <v>9</v>
       </c>
